--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/res_partner.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/res_partner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="244">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -124,6 +124,9 @@
     <t xml:space="preserve">base.it</t>
   </si>
   <si>
+    <t xml:space="preserve">20080</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ozzero</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t xml:space="preserve">Via I Maggio, 101</t>
   </si>
   <si>
+    <t xml:space="preserve">20022</t>
+  </si>
+  <si>
     <t xml:space="preserve">Castano Primo</t>
   </si>
   <si>
@@ -214,6 +220,9 @@
     <t xml:space="preserve">Largo Fasuli Decimomanno, 10</t>
   </si>
   <si>
+    <t xml:space="preserve">10121</t>
+  </si>
+  <si>
     <t xml:space="preserve">Torino</t>
   </si>
   <si>
@@ -241,6 +250,9 @@
     <t xml:space="preserve">Palazzo NUVOLA</t>
   </si>
   <si>
+    <t xml:space="preserve">10151</t>
+  </si>
+  <si>
     <t xml:space="preserve">commercial@eleven-caffe.it</t>
   </si>
   <si>
@@ -262,6 +274,9 @@
     <t xml:space="preserve">base.de</t>
   </si>
   <si>
+    <t xml:space="preserve">14195</t>
+  </si>
+  <si>
     <t xml:space="preserve">Berlin</t>
   </si>
   <si>
@@ -283,6 +298,9 @@
     <t xml:space="preserve">Christophstraße 13</t>
   </si>
   <si>
+    <t xml:space="preserve">55113</t>
+  </si>
+  <si>
     <t xml:space="preserve">Määnz</t>
   </si>
   <si>
@@ -301,6 +319,9 @@
     <t xml:space="preserve">Viale Colli Euganei, 13</t>
   </si>
   <si>
+    <t xml:space="preserve">20113</t>
+  </si>
+  <si>
     <t xml:space="preserve">Milano</t>
   </si>
   <si>
@@ -322,6 +343,9 @@
     <t xml:space="preserve">Corso S. Antonio, 13</t>
   </si>
   <si>
+    <t xml:space="preserve">35113</t>
+  </si>
+  <si>
     <t xml:space="preserve">Padova</t>
   </si>
   <si>
@@ -337,6 +361,9 @@
     <t xml:space="preserve">Str. Briaco, 14</t>
   </si>
   <si>
+    <t xml:space="preserve">15028</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quattordio</t>
   </si>
   <si>
@@ -355,6 +382,9 @@
     <t xml:space="preserve">P.za mano del porto, 5</t>
   </si>
   <si>
+    <t xml:space="preserve">16115</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genova</t>
   </si>
   <si>
@@ -427,6 +457,9 @@
     <t xml:space="preserve">Centro Direzionale Milanofiori - Palazzo P Scala 16</t>
   </si>
   <si>
+    <t xml:space="preserve">20090</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assago</t>
   </si>
   <si>
@@ -475,6 +508,9 @@
     <t xml:space="preserve">Via Dueville, 2</t>
   </si>
   <si>
+    <t xml:space="preserve">10060</t>
+  </si>
+  <si>
     <t xml:space="preserve">S. Secondo Pinerolo</t>
   </si>
   <si>
@@ -517,6 +553,9 @@
     <t xml:space="preserve">Torre 3T</t>
   </si>
   <si>
+    <t xml:space="preserve">15010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Terzo</t>
   </si>
   <si>
@@ -544,6 +583,9 @@
     <t xml:space="preserve">C.so IV Marzo, 44</t>
   </si>
   <si>
+    <t xml:space="preserve">80010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quarto Flegreo</t>
   </si>
   <si>
@@ -571,6 +613,9 @@
     <t xml:space="preserve">V.le Carlo V Guaglione, 155</t>
   </si>
   <si>
+    <t xml:space="preserve">31055</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quinto di Treviso</t>
   </si>
   <si>
@@ -595,6 +640,9 @@
     <t xml:space="preserve">Str. Giffoni Sei Casali, 1966</t>
   </si>
   <si>
+    <t xml:space="preserve">20099</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sesto S. Giovanni</t>
   </si>
   <si>
@@ -631,6 +679,9 @@
     <t xml:space="preserve">base.ch</t>
   </si>
   <si>
+    <t xml:space="preserve">6900</t>
+  </si>
+  <si>
     <t xml:space="preserve">Massagno</t>
   </si>
   <si>
@@ -680,6 +731,9 @@
   </si>
   <si>
     <t xml:space="preserve">Via Figliata, 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36055</t>
   </si>
   <si>
     <t xml:space="preserve">Nove</t>
@@ -704,8 +758,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -779,12 +834,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -805,10 +864,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -935,7 +994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -949,37 +1008,37 @@
       <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>20080</v>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -994,60 +1053,60 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>20022</v>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -1056,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -1064,58 +1123,58 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>32100</v>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1126,55 +1185,55 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>10121</v>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1188,54 +1247,54 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>10151</v>
+      <c r="F6" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1250,49 +1309,49 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>14195</v>
+        <v>83</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1306,52 +1365,52 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>55113</v>
+        <v>83</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1364,40 +1423,40 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="n">
-        <v>20113</v>
+      <c r="F9" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1406,19 +1465,19 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -1428,40 +1487,40 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <v>35113</v>
+      <c r="F10" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1472,10 +1531,10 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -1486,51 +1545,51 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>15028</v>
+      <c r="F11" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1544,58 +1603,58 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <v>16115</v>
+      <c r="F12" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1606,74 +1665,74 @@
         <v>1</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <v>16115</v>
+      <c r="F13" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -1682,52 +1741,52 @@
         <v>1</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <v>16115</v>
+      <c r="F14" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1735,13 +1794,13 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1750,66 +1809,66 @@
         <v>1</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="1" t="n">
-        <v>20090</v>
+      <c r="F15" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -1818,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -1826,54 +1885,54 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -1886,60 +1945,60 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <v>10060</v>
+      <c r="F17" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -1948,76 +2007,76 @@
         <v>1</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="1" t="n">
-        <v>15010</v>
+      <c r="F18" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -2026,65 +2085,65 @@
         <v>1</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="1" t="n">
-        <v>80010</v>
+      <c r="F19" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2098,55 +2157,55 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="1" t="n">
-        <v>31055</v>
+      <c r="F20" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2160,60 +2219,60 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="1" t="n">
-        <v>20099</v>
+      <c r="F21" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -2222,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -2230,56 +2289,56 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>6900</v>
+        <v>218</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -2292,58 +2351,58 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>211</v>
+      <c r="F23" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -2352,65 +2411,65 @@
         <v>1</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="1" t="n">
-        <v>36055</v>
+      <c r="F24" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2420,19 +2479,44 @@
         <v>1</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/res_partner.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/res_partner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="248">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -79,6 +79,9 @@
     <t xml:space="preserve">property_payment_term_id</t>
   </si>
   <si>
+    <t xml:space="preserve">property_supplier_payment_term_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">parent_id</t>
   </si>
   <si>
@@ -112,6 +115,24 @@
     <t xml:space="preserve">lang</t>
   </si>
   <si>
+    <t xml:space="preserve">base.partner_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@powerp.it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_IT</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.partner_mycompany</t>
   </si>
   <si>
@@ -121,9 +142,6 @@
     <t xml:space="preserve">Via dei Matti, 0</t>
   </si>
   <si>
-    <t xml:space="preserve">base.it</t>
-  </si>
-  <si>
     <t xml:space="preserve">20080</t>
   </si>
   <si>
@@ -133,9 +151,6 @@
     <t xml:space="preserve">base.state_it_mi</t>
   </si>
   <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
@@ -151,9 +166,6 @@
     <t xml:space="preserve">https://www.testcompany.org</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.res_partner_1</t>
   </si>
   <si>
@@ -238,6 +250,9 @@
     <t xml:space="preserve">JCKLBR72M24L736R</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.payment_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.res_partner_11</t>
   </si>
   <si>
@@ -262,6 +277,9 @@
     <t xml:space="preserve">http://www.eleven-caffe.it</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.payment_5</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.res_partner_12</t>
   </si>
   <si>
@@ -307,9 +325,6 @@
     <t xml:space="preserve">DE812526315</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.payment_5</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.res_partner_13_1</t>
   </si>
   <si>
@@ -323,9 +338,6 @@
   </si>
   <si>
     <t xml:space="preserve">Milano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.payment_3</t>
   </si>
   <si>
     <t xml:space="preserve">invoice</t>
@@ -762,7 +774,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -790,6 +802,18 @@
       <name val="arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -834,7 +858,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -844,6 +868,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -864,13 +896,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD1048576"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.01"/>
@@ -888,21 +920,21 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="7.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="4.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="23.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="26.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="4.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="7.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="23.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="26.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,14 +1024,17 @@
       </c>
       <c r="AD1" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1009,36 +1044,36 @@
         <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1052,193 +1087,198 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
-        <v>43</v>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1" t="s">
-        <v>43</v>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="T4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
+      <c r="X4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1" t="s">
-        <v>43</v>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -1246,59 +1286,64 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1" t="s">
-        <v>43</v>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1308,53 +1353,62 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1" t="s">
-        <v>43</v>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1364,55 +1418,56 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1" t="s">
-        <v>88</v>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="T8" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1422,63 +1477,58 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1" t="s">
-        <v>88</v>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -1486,41 +1536,42 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="1" t="s">
-        <v>43</v>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1528,73 +1579,80 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="R10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1" t="s">
-        <v>43</v>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -1602,613 +1660,628 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="1" t="s">
-        <v>43</v>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="U12" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>43</v>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1" t="n">
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+      <c r="AA13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="AD13" s="1" t="s">
-        <v>43</v>
+        <v>133</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="S14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="T14" s="1"/>
       <c r="U14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V14" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1" t="n">
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="Z14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1" t="s">
-        <v>43</v>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1" t="s">
-        <v>43</v>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M16" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="R16" s="1" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="T16" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
+      <c r="X16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1" t="s">
-        <v>88</v>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="T17" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>43</v>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="1" t="n">
+      <c r="W18" s="1"/>
+      <c r="X18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y18" s="1"/>
+      <c r="Y18" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC18" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="AD18" s="1" t="s">
-        <v>43</v>
+        <v>176</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="R19" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
+      <c r="X19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1" t="s">
-        <v>43</v>
+      <c r="AC19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -2218,305 +2291,350 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1" t="s">
-        <v>43</v>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1" t="s">
-        <v>43</v>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H22" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I22" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="R22" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
+      <c r="X22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="1" t="s">
-        <v>43</v>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T23" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1" t="s">
-        <v>43</v>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="O24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S24" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="1" t="n">
+      <c r="W24" s="1"/>
+      <c r="X24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="Y24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1" t="s">
-        <v>43</v>
+      <c r="I25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/res_partner.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/res_partner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="249">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -490,7 +490,7 @@
     <t xml:space="preserve">z0bug.res_partner_17</t>
   </si>
   <si>
-    <t xml:space="preserve">Vexor BV</t>
+    <t xml:space="preserve">Ruuth Van Zeeland</t>
   </si>
   <si>
     <t xml:space="preserve">Hoogoorddreef 66</t>
@@ -505,10 +505,13 @@
     <t xml:space="preserve">Amsterdam</t>
   </si>
   <si>
-    <t xml:space="preserve">info@vexor.nl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL123456782B90</t>
+    <t xml:space="preserve">ruuth.zeeland@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.payment_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXXXXX</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_2</t>
@@ -774,7 +777,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -798,22 +801,17 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <name val="arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -858,7 +856,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -867,15 +865,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -899,1739 +893,1743 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="S17" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="4.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="23.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="26.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="2.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="16.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="4.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="6.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="20.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="20.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="22.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="4.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="32" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1" t="s">
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1" t="n">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="s">
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1" t="s">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1" t="s">
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1" t="s">
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4" t="s">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1" t="s">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="s">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="4" t="s">
+      <c r="S8" s="2"/>
+      <c r="T8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1" t="s">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1" t="s">
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1" t="s">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1" t="s">
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1" t="s">
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1" t="s">
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1" t="s">
+      <c r="J12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1" t="s">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1" t="s">
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1" t="s">
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="K13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1" t="s">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1" t="n">
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AA13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AB13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AC13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AD13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AE13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="K14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1" t="s">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1" t="s">
+      <c r="T14" s="2"/>
+      <c r="U14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1" t="n">
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AA14" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1" t="s">
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="I15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="K15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1" t="s">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1" t="s">
+      <c r="T15" s="2"/>
+      <c r="U15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1" t="n">
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AA15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1" t="s">
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="I16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="s">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1" t="n">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1" t="s">
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1" t="s">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1" t="s">
-        <v>94</v>
+      <c r="T19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="F20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="R18" s="1" t="s">
+      <c r="J20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1" t="n">
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE18" s="1" t="s">
+      <c r="Y22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="1" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="R19" s="1" t="s">
+      <c r="F24" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1" t="n">
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y19" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="Y25" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1" t="s">
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/res_partner.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/res_partner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="250">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t xml:space="preserve">ruuth.zeeland@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_nl</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.payment_0</t>
@@ -893,7 +896,11 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S17" activeCellId="0" sqref="1:1048576"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R17" activeCellId="0" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -902,7 +909,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.31"/>
@@ -913,7 +920,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="2.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="20.54"/>
@@ -2049,10 +2056,10 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -2062,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -2075,23 +2082,23 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>72</v>
@@ -2106,24 +2113,24 @@
         <v>43</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -2133,18 +2140,18 @@
         <v>1</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE18" s="2" t="s">
         <v>36</v>
@@ -2152,25 +2159,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>119</v>
@@ -2185,18 +2192,18 @@
         <v>43</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>57</v>
@@ -2220,7 +2227,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2" t="s">
@@ -2229,26 +2236,26 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>34</v>
@@ -2260,25 +2267,25 @@
         <v>43</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -2296,26 +2303,26 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>34</v>
@@ -2327,14 +2334,14 @@
         <v>43</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2359,23 +2366,23 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>42</v>
@@ -2390,24 +2397,24 @@
         <v>43</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -2417,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -2430,23 +2437,23 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
@@ -2459,25 +2466,25 @@
         <v>43</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -2495,26 +2502,26 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>43</v>
@@ -2526,14 +2533,14 @@
         <v>43</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2551,12 +2558,12 @@
         <v>1</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
@@ -2566,26 +2573,26 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>43</v>
@@ -2597,15 +2604,15 @@
         <v>43</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2" t="s">
@@ -2620,12 +2627,12 @@
         <v>1</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>

--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/res_partner.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/res_partner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="264">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -166,6 +166,54 @@
     <t xml:space="preserve">https://www.testcompany.org</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.partner_mycompany_uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Company UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.gb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB698938639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.partner_mycompany_de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Company DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steuerberater- und Rechtsanwaltspartnerschaft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">München</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE136695976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.partner_mycompany_fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Company FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR40303265045</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.res_partner_1</t>
   </si>
   <si>
@@ -289,9 +337,6 @@
     <t xml:space="preserve">Kaiserswerther Straße 12-24</t>
   </si>
   <si>
-    <t xml:space="preserve">base.de</t>
-  </si>
-  <si>
     <t xml:space="preserve">14195</t>
   </si>
   <si>
@@ -302,9 +347,6 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_eu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_US</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_13</t>
@@ -893,19 +935,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R17" activeCellId="0" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.87"/>
@@ -924,7 +967,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="15.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="16.68"/>
@@ -1166,123 +1209,103 @@
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
@@ -1292,63 +1315,51 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U6" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1359,36 +1370,34 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>43</v>
@@ -1397,27 +1406,37 @@
         <v>43</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="T7" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="X7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -1429,27 +1448,27 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>43</v>
@@ -1457,23 +1476,27 @@
       <c r="K8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="Q8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -1483,54 +1506,62 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P9" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T9" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -1542,63 +1573,63 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="Q10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
@@ -1612,32 +1643,30 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>43</v>
@@ -1645,18 +1674,20 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="T11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -1666,37 +1697,35 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>43</v>
@@ -1705,18 +1734,18 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="T12" s="2"/>
-      <c r="U12" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1727,31 +1756,31 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>43</v>
@@ -1762,71 +1791,61 @@
       <c r="K13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
+      <c r="U13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>43</v>
@@ -1837,38 +1856,26 @@
       <c r="K14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -1878,66 +1885,58 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="R15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
@@ -1947,98 +1946,102 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="2" t="n">
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
+      <c r="AA16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="AE16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="I17" s="2" t="s">
         <v>43</v>
       </c>
@@ -2048,60 +2051,67 @@
       <c r="K17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
+      <c r="U17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="W17" s="2"/>
-      <c r="X17" s="2" t="n">
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y17" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>43</v>
@@ -2113,74 +2123,64 @@
         <v>43</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="2" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
+      <c r="U18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="W18" s="2"/>
-      <c r="X18" s="2" t="n">
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Y18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AA18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
       <c r="AE18" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>43</v>
@@ -2192,27 +2192,27 @@
         <v>43</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -2221,14 +2221,12 @@
         <v>1</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2" t="s">
         <v>36</v>
@@ -2236,187 +2234,200 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>195</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="L20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="X20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="Q21" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="R21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S21" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="X21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
+      <c r="AB21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="AE21" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="T22" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -2424,12 +2435,14 @@
         <v>1</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
+      <c r="AC22" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2" t="s">
         <v>36</v>
@@ -2437,27 +2450,29 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="I23" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>43</v>
@@ -2466,25 +2481,25 @@
         <v>43</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -2502,69 +2517,61 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2" t="s">
@@ -2573,52 +2580,56 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="R25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -2627,16 +2638,219 @@
         <v>1</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2" t="s">
-        <v>239</v>
-      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/res_partner.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/res_partner.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="268">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">parent_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
@@ -82,9 +85,6 @@
     <t xml:space="preserve">property_supplier_payment_term_id</t>
   </si>
   <si>
-    <t xml:space="preserve">parent_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
@@ -715,6 +715,9 @@
     <t xml:space="preserve">IT12345670017</t>
   </si>
   <si>
+    <t xml:space="preserve">03949760163</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.esaspa.it</t>
   </si>
   <si>
@@ -725,6 +728,15 @@
   </si>
   <si>
     <t xml:space="preserve">ABC1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.res_partner_6_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex Servizi S.p.A – Gruppo Esa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04245520376</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_7</t>
@@ -935,39 +947,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE28"/>
+  <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O6" activeCellId="0" sqref="O6"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="2.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="2.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="16.68"/>
@@ -978,10 +990,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="20.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="22.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="4.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="32" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="32" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1076,22 +1088,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>32</v>
@@ -1099,8 +1109,8 @@
       <c r="H2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>34</v>
@@ -1108,21 +1118,23 @@
       <c r="K2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -1139,53 +1151,53 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -1202,48 +1214,48 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1257,54 +1269,54 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1318,48 +1330,48 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1373,32 +1385,30 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>43</v>
       </c>
@@ -1406,29 +1416,31 @@
         <v>43</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U7" s="2"/>
+      <c r="U7" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2" t="n">
@@ -1446,30 +1458,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1477,23 +1489,23 @@
         <v>43</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="U8" s="2"/>
       <c r="V8" s="2" t="s">
         <v>82</v>
       </c>
@@ -1509,60 +1521,60 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="U9" s="2"/>
+      <c r="U9" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -1576,58 +1588,58 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -1641,52 +1653,52 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -1700,51 +1712,51 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -1759,54 +1771,54 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
         <v>120</v>
       </c>
@@ -1824,39 +1836,41 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1865,9 +1879,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="U14" s="2"/>
       <c r="V14" s="2" t="s">
         <v>82</v>
       </c>
@@ -1883,54 +1895,52 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="2"/>
+      <c r="S15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -1944,57 +1954,57 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="L16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="2"/>
+      <c r="S16" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -2019,58 +2029,58 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="L17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="2"/>
+      <c r="S17" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="U17" s="2"/>
       <c r="V17" s="2" t="s">
         <v>120</v>
       </c>
@@ -2090,56 +2100,56 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="L18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2" t="s">
+      <c r="S18" s="2"/>
+      <c r="T18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="U18" s="2"/>
       <c r="V18" s="2" t="s">
         <v>120</v>
       </c>
@@ -2159,32 +2169,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J19" s="2" t="s">
         <v>43</v>
       </c>
@@ -2192,29 +2200,31 @@
         <v>43</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U19" s="2"/>
+      <c r="U19" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2" t="n">
@@ -2232,50 +2242,50 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="2"/>
+      <c r="S20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -2294,59 +2304,59 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="L21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -2371,34 +2381,32 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J22" s="2" t="s">
         <v>43</v>
       </c>
@@ -2406,29 +2414,31 @@
         <v>43</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="U22" s="2"/>
+      <c r="U22" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2" t="n">
@@ -2448,60 +2458,60 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="2"/>
+      <c r="S23" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="U23" s="2"/>
+      <c r="U23" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -2515,54 +2525,54 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2" t="s">
+      <c r="R24" s="2"/>
+      <c r="S24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -2578,49 +2588,49 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J25" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="2"/>
+      <c r="P25" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="P25" s="2"/>
       <c r="Q25" s="2" t="s">
         <v>231</v>
       </c>
@@ -2630,7 +2640,9 @@
       <c r="S25" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="T25" s="2"/>
+      <c r="T25" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -2638,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -2649,62 +2661,70 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B26" s="2" t="s">
         <v>236</v>
       </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q26" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>233</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="X26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
@@ -2714,126 +2734,122 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="O27" s="2"/>
+      <c r="P27" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
+      <c r="T27" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="J28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -2841,16 +2857,85 @@
         <v>1</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2" t="s">
         <v>36</v>
       </c>
     </row>
